--- a/biology/Zoologie/Alice_Laura_Embleton/Alice_Laura_Embleton.xlsx
+++ b/biology/Zoologie/Alice_Laura_Embleton/Alice_Laura_Embleton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice Laura Embleton (1876-1960) est une biologiste et zoologiste britannique. Elle est l'une des premières femmes à avoir  étudié les sciences à l'University College of South Wales and Monmouthshire, et appartient au premier groupe de femmes nommées fellows de la Linnean Society of London en 1905. Alice Embleton a conduit des recherches sur les pesticides pour améliorer la production agricole[1]. Elle fut une suffragette notoire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice Laura Embleton (1876-1960) est une biologiste et zoologiste britannique. Elle est l'une des premières femmes à avoir  étudié les sciences à l'University College of South Wales and Monmouthshire, et appartient au premier groupe de femmes nommées fellows de la Linnean Society of London en 1905. Alice Embleton a conduit des recherches sur les pesticides pour améliorer la production agricole. Elle fut une suffragette notoire.
 </t>
         </is>
       </c>
@@ -511,17 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice Embleton naït à Epsom, Surrey en 1876. Elle fréquente la Sutton High School, London (en), qu'elle quitte à 15 ans en raisons de difficultés financières. Elle s'inscrit toutefois par la suite à l'University College of South Wales and Monmouthshire, maintenant Cardiff University, en 1895, et obtient en 1899 un Bachelor of Science[1].
-Recherches
-En 1900, elle a remporté la 1851 Research Fellowship (en), qui attribue chaque année une bourse de recherche de trois ans à « de jeunes scientifiques ou ingénieurs exceptionnellement prometteurs »[2]. Elle a utilisé la bourse de 150 £ pour travailler au Laboratoire biologique Balfour à Newnham College, Cambridge, suivi d'une nouvelle période d'études à la Sorbonne à Paris[3]. Elle est considérée comme la deuxième femme à publier sur le sujet de la copépodologie (en), après Edith Mary Pratt[4].
-En 1903, elle a été nommée zoologiste honoraire au Board of Agriculture et a remporté la bourse Mackinnon de la Royal Society pour la recherche en sciences biologiques[5].
-Elle a été l'une des premières femmes à prendre la parole à la Linnean Society, Burlington House, Londres[6]. Son article, publié le 4 juin 1903, était intitulé : « Anatomy and Development of a Hymeropterous Parasite of a Scaly Insect (Lecanium Hemisphoericum) »[7]. Parmi quinze autres femmes, elle a été nommée membre de la Linnean Society en 1905[8]. Les archives de la Linnean Society contiennent la correspondance d'Embleton avec la Society, dont elle est restée membre jusqu'en 1917[9].
-En 1906, elle a co-publié les articles, On the synapsis in amphibia[10] et On the origin of the sertoli[11].
-Plus tard, elle a mené des recherches sur le cancer au Royal College of Science (en) de South Kensington[12],[13].
-Vie privée
-Pendant de nombreuses années, elle a eu une relation avec la scientifique Celia Wray.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alice Embleton naït à Epsom, Surrey en 1876. Elle fréquente la Sutton High School, London (en), qu'elle quitte à 15 ans en raisons de difficultés financières. Elle s'inscrit toutefois par la suite à l'University College of South Wales and Monmouthshire, maintenant Cardiff University, en 1895, et obtient en 1899 un Bachelor of Science.
 </t>
         </is>
       </c>
@@ -547,10 +553,90 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Recherches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1900, elle a remporté la 1851 Research Fellowship (en), qui attribue chaque année une bourse de recherche de trois ans à « de jeunes scientifiques ou ingénieurs exceptionnellement prometteurs ». Elle a utilisé la bourse de 150 £ pour travailler au Laboratoire biologique Balfour à Newnham College, Cambridge, suivi d'une nouvelle période d'études à la Sorbonne à Paris. Elle est considérée comme la deuxième femme à publier sur le sujet de la copépodologie (en), après Edith Mary Pratt.
+En 1903, elle a été nommée zoologiste honoraire au Board of Agriculture et a remporté la bourse Mackinnon de la Royal Society pour la recherche en sciences biologiques.
+Elle a été l'une des premières femmes à prendre la parole à la Linnean Society, Burlington House, Londres. Son article, publié le 4 juin 1903, était intitulé : « Anatomy and Development of a Hymeropterous Parasite of a Scaly Insect (Lecanium Hemisphoericum) ». Parmi quinze autres femmes, elle a été nommée membre de la Linnean Society en 1905. Les archives de la Linnean Society contiennent la correspondance d'Embleton avec la Society, dont elle est restée membre jusqu'en 1917.
+En 1906, elle a co-publié les articles, On the synapsis in amphibia et On the origin of the sertoli.
+Plus tard, elle a mené des recherches sur le cancer au Royal College of Science (en) de South Kensington,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_Laura_Embleton</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Laura_Embleton</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant de nombreuses années, elle a eu une relation avec la scientifique Celia Wray.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alice_Laura_Embleton</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_Laura_Embleton</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On the Economic Importance of the Parasires of Coccidae, Entomological Society of London, 1902</t>
         </is>
